--- a/biology/Microbiologie/Rhoicospheniaceae/Rhoicospheniaceae.xlsx
+++ b/biology/Microbiologie/Rhoicospheniaceae/Rhoicospheniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rhoicospheniaceae sont une famille d'algues diatomées de l'embranchement des Bacillariophyta, de la classe des Bacillariophyceae, et de l'ordre des Cymbellales. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Rhoicosphenia,  dérivé du grec ῥοικός / roikós, «  courbe, recourbé », et σφεν / sfen, coin, en référence à la forme de la diatomée.
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,9 +612,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>selon AlgaeBase                                           (17 octobre 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>selon AlgaeBase                                           (17 octobre 2022) :
 Campylopyxis Medlin, 1985
 Chelonicola Majewska, De Stefano &amp; Van de Vijver, 2015
 Cuneolus M.H.Giffen, 1970
@@ -610,7 +630,7 @@
 Simonseniella J.M.Fenner, 1991
 Tripterion R.W.Holmes, S.Nagasawa &amp; H.Takano, 1993
 Tursiocola R.W.Holmes, S.Nagasawa &amp; H.Takano, 1993
-Selon ITIS      (17 octobre 2022)[2] :
+Selon ITIS      (17 octobre 2022) :
 Campylopyxis Medlin
 Cuneolus Giffen
 Epiphalaina Holmes, Nagasawa &amp; Takano
@@ -619,7 +639,7 @@
 Gomphosphenia Lange-Bertalot
 Rhoicosphenia Grunow
 Tursiocola Holmes, Nagasawa &amp; Takano,
-Selon World Register of Marine Species                               (17 octobre 2022)[3] :
+Selon World Register of Marine Species                               (17 octobre 2022) :
 Campylopyxis L.K.Medlin, 1985
 Cuneolus M.H.Giffen, 1970
 Gomphonemopsis L.K.Medlin, 1986
@@ -652,9 +672,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rhoicospheniaceae J.Y.Chen &amp; H.Z.Zhu, 1983[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rhoicospheniaceae J.Y.Chen &amp; H.Z.Zhu, 1983.
 </t>
         </is>
       </c>
@@ -683,7 +705,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Chen, J. &amp; Zhu, H. (1983). Amphiraphisales, a new order of the pennatae, Bacillariophyta. Acta Phytotaxonomica Sinica 21(4):  449-457.</t>
         </is>
